--- a/data/raw/lab_jena_results-co2_2018-07-30/ArcInc_IncData_2018.xlsx
+++ b/data/raw/lab_jena_results-co2_2018-07-30/ArcInc_IncData_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="29960" windowHeight="19520"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="jar_information" sheetId="4" r:id="rId1"/>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1485,7 +1485,7 @@
         <v>10.650786699257674</v>
       </c>
       <c r="U3" s="57">
-        <f>T3/I3</f>
+        <f t="shared" ref="U3:U16" si="1">T3/I3</f>
         <v>1.0567905557689244E-2</v>
       </c>
       <c r="V3" s="56">
@@ -1584,7 +1584,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I4" s="30">
-        <f t="shared" ref="I4:I26" si="1">((E4*H4)/(G4-E4))</f>
+        <f t="shared" ref="I4:I26" si="2">((E4*H4)/(G4-E4))</f>
         <v>979.7904191616766</v>
       </c>
       <c r="J4" s="8">
@@ -1608,7 +1608,7 @@
         <v>26.611591631551708</v>
       </c>
       <c r="R4" s="46">
-        <f t="shared" ref="R4:R22" si="2">Q4/2</f>
+        <f t="shared" ref="R4:R22" si="3">Q4/2</f>
         <v>13.305795815775854</v>
       </c>
       <c r="S4" s="55">
@@ -1619,7 +1619,7 @@
         <v>10.650786699257674</v>
       </c>
       <c r="U4" s="57">
-        <f>T4/I4</f>
+        <f t="shared" si="1"/>
         <v>1.0870474431022348E-2</v>
       </c>
       <c r="V4" s="56">
@@ -1718,7 +1718,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I5" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1007.8427216363732</v>
       </c>
       <c r="J5" s="8">
@@ -1741,7 +1741,7 @@
         <v>27.373506019753343</v>
       </c>
       <c r="R5" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.686753009876671</v>
       </c>
       <c r="S5" s="55">
@@ -1752,7 +1752,7 @@
         <v>10.650786699257674</v>
       </c>
       <c r="U5" s="57">
-        <f>T5/I5</f>
+        <f t="shared" si="1"/>
         <v>1.0567905557689236E-2</v>
       </c>
       <c r="V5" s="56">
@@ -1847,7 +1847,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I6" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>979.7904191616766</v>
       </c>
       <c r="J6" s="8">
@@ -1870,7 +1870,7 @@
         <v>26.611591631551708</v>
       </c>
       <c r="R6" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.305795815775854</v>
       </c>
       <c r="S6" s="55">
@@ -1881,7 +1881,7 @@
         <v>2.1002213089449566</v>
       </c>
       <c r="U6" s="57">
-        <f>T6/I6</f>
+        <f t="shared" si="1"/>
         <v>2.1435413817803379E-3</v>
       </c>
       <c r="V6" s="56">
@@ -1976,7 +1976,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I7" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>998.43694963015128</v>
       </c>
       <c r="J7" s="8">
@@ -1999,7 +1999,7 @@
         <v>27.118040607238672</v>
       </c>
       <c r="R7" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.559020303619336</v>
       </c>
       <c r="S7" s="55">
@@ -2010,7 +2010,7 @@
         <v>2.1002213089449566</v>
       </c>
       <c r="U7" s="57">
-        <f>T7/I7</f>
+        <f t="shared" si="1"/>
         <v>2.1035091997776492E-3</v>
       </c>
       <c r="V7" s="56">
@@ -2105,7 +2105,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>975.16281306001133</v>
       </c>
       <c r="J8" s="8">
@@ -2128,7 +2128,7 @@
         <v>26.485903564592896</v>
       </c>
       <c r="R8" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.242951782296448</v>
       </c>
       <c r="S8" s="55">
@@ -2139,7 +2139,7 @@
         <v>2.1002213089449566</v>
       </c>
       <c r="U8" s="57">
-        <f>T8/I8</f>
+        <f t="shared" si="1"/>
         <v>2.1537134936006931E-3</v>
       </c>
       <c r="V8" s="56">
@@ -2234,7 +2234,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I9" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1012.5664476070017</v>
       </c>
       <c r="J9" s="8">
@@ -2257,7 +2257,7 @@
         <v>27.501804749819797</v>
       </c>
       <c r="R9" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.750902374909899</v>
       </c>
       <c r="S9" s="55">
@@ -2268,7 +2268,7 @@
         <v>18.813122585199586</v>
       </c>
       <c r="U9" s="57">
-        <f>T9/I9</f>
+        <f t="shared" si="1"/>
         <v>1.8579642481400246E-2</v>
       </c>
       <c r="V9" s="56">
@@ -2363,7 +2363,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I10" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>998.43694963015128</v>
       </c>
       <c r="J10" s="8">
@@ -2387,7 +2387,7 @@
         <v>27.118040607238672</v>
       </c>
       <c r="R10" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.559020303619336</v>
       </c>
       <c r="S10" s="55">
@@ -2398,7 +2398,7 @@
         <v>18.813122585199586</v>
       </c>
       <c r="U10" s="57">
-        <f>T10/I10</f>
+        <f t="shared" si="1"/>
         <v>1.8842574478206649E-2</v>
       </c>
       <c r="V10" s="56">
@@ -2497,7 +2497,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I11" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1003.1329094388542</v>
       </c>
       <c r="J11" s="8">
@@ -2521,7 +2521,7 @@
         <v>27.245585194635542</v>
       </c>
       <c r="R11" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.622792597317771</v>
       </c>
       <c r="S11" s="55">
@@ -2532,7 +2532,7 @@
         <v>18.813122585199586</v>
       </c>
       <c r="U11" s="57">
-        <f>T11/I11</f>
+        <f t="shared" si="1"/>
         <v>1.8754366852268379E-2</v>
       </c>
       <c r="V11" s="56">
@@ -2631,7 +2631,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I12" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>975.16281306001133</v>
       </c>
       <c r="J12" s="8">
@@ -2654,7 +2654,7 @@
         <v>26.485903564592896</v>
       </c>
       <c r="R12" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.242951782296448</v>
       </c>
       <c r="S12" s="55">
@@ -2665,7 +2665,7 @@
         <v>3.7324844392034473</v>
       </c>
       <c r="U12" s="57">
-        <f>T12/I12</f>
+        <f t="shared" si="1"/>
         <v>3.8275500144341035E-3</v>
       </c>
       <c r="V12" s="56">
@@ -2755,7 +2755,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>975.16281306001133</v>
       </c>
       <c r="J13" s="8">
@@ -2779,7 +2779,7 @@
         <v>26.485903564592896</v>
       </c>
       <c r="R13" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.242951782296448</v>
       </c>
       <c r="S13" s="55">
@@ -2790,7 +2790,7 @@
         <v>3.7324844392034473</v>
       </c>
       <c r="U13" s="57">
-        <f>T13/I13</f>
+        <f t="shared" si="1"/>
         <v>3.8275500144341035E-3</v>
       </c>
       <c r="V13" s="56">
@@ -2889,7 +2889,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I14" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>979.7904191616766</v>
       </c>
       <c r="J14" s="8">
@@ -2913,7 +2913,7 @@
         <v>26.611591631551708</v>
       </c>
       <c r="R14" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.305795815775854</v>
       </c>
       <c r="S14" s="55">
@@ -2924,7 +2924,7 @@
         <v>3.7324844392034473</v>
       </c>
       <c r="U14" s="57">
-        <f>T14/I14</f>
+        <f t="shared" si="1"/>
         <v>3.8094722771396532E-3</v>
       </c>
       <c r="V14" s="56">
@@ -3023,7 +3023,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I15" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1007.5846827055947</v>
       </c>
       <c r="J15" s="8">
@@ -3046,7 +3046,7 @@
         <v>27.366497554966767</v>
       </c>
       <c r="R15" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.683248777483383</v>
       </c>
       <c r="S15" s="55">
@@ -3057,7 +3057,7 @@
         <v>7.2089513781016725</v>
       </c>
       <c r="U15" s="57">
-        <f>T15/I15</f>
+        <f t="shared" si="1"/>
         <v>7.1546853597893069E-3</v>
       </c>
       <c r="V15" s="56">
@@ -3147,7 +3147,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I16" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>988.77465656921436</v>
       </c>
       <c r="J16" s="8">
@@ -3170,7 +3170,7 @@
         <v>26.855607956200881</v>
       </c>
       <c r="R16" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.427803978100441</v>
       </c>
       <c r="S16" s="55">
@@ -3181,7 +3181,7 @@
         <v>9.694929332799763</v>
       </c>
       <c r="U16" s="57">
-        <f>T16/I16</f>
+        <f t="shared" si="1"/>
         <v>9.8049937550367585E-3</v>
       </c>
       <c r="V16" s="56">
@@ -3271,7 +3271,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I17" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>998.15192623602354</v>
       </c>
       <c r="J17" s="8">
@@ -3295,7 +3295,7 @@
         <v>27.110299231101873</v>
       </c>
       <c r="R17" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.555149615550937</v>
       </c>
       <c r="S17" s="61" t="s">
@@ -3387,7 +3387,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I18" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>993.45638619667875</v>
       </c>
       <c r="J18" s="8">
@@ -3411,7 +3411,7 @@
         <v>26.982766044848059</v>
       </c>
       <c r="R18" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.49138302242403</v>
       </c>
       <c r="S18" s="61" t="s">
@@ -3503,7 +3503,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I19" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>998.15192623602354</v>
       </c>
       <c r="J19" s="8">
@@ -3527,7 +3527,7 @@
         <v>27.110299231101873</v>
       </c>
       <c r="R19" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.555149615550937</v>
       </c>
       <c r="S19" s="61" t="s">
@@ -3628,7 +3628,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I20" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1007.5846827055947</v>
       </c>
       <c r="J20" s="8">
@@ -3652,7 +3652,7 @@
         <v>27.366497554966767</v>
       </c>
       <c r="R20" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.683248777483383</v>
       </c>
       <c r="S20" s="61" t="s">
@@ -3753,7 +3753,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I21" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1021.8389372814548</v>
       </c>
       <c r="J21" s="8">
@@ -3777,7 +3777,7 @@
         <v>27.753650148385191</v>
       </c>
       <c r="R21" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.876825074192595</v>
       </c>
       <c r="S21" s="61" t="s">
@@ -3863,7 +3863,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I22" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>998.15192623602354</v>
       </c>
       <c r="J22" s="8">
@@ -3887,7 +3887,7 @@
         <v>27.110299231101873</v>
       </c>
       <c r="R22" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.555149615550937</v>
       </c>
       <c r="S22" s="61" t="s">
@@ -4022,7 +4022,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="38"/>
       <c r="I24" s="30" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="8"/>
@@ -4031,7 +4031,7 @@
         <v>1100</v>
       </c>
       <c r="M24" s="33" t="e">
-        <f t="shared" ref="M24:M26" si="3">((L24*G24)/J24)-L24</f>
+        <f t="shared" ref="M24:M26" si="4">((L24*G24)/J24)-L24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="39"/>
@@ -4104,7 +4104,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="38"/>
       <c r="I25" s="30" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="8"/>
@@ -4113,7 +4113,7 @@
         <v>1100</v>
       </c>
       <c r="M25" s="33" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="39"/>
@@ -4186,7 +4186,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="38"/>
       <c r="I26" s="30" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="8"/>
@@ -4195,7 +4195,7 @@
         <v>1100</v>
       </c>
       <c r="M26" s="33" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="39"/>
@@ -4215,7 +4215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>

--- a/data/raw/lab_jena_results-co2_2018-07-30/ArcInc_IncData_2018.xlsx
+++ b/data/raw/lab_jena_results-co2_2018-07-30/ArcInc_IncData_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -287,12 +287,88 @@
   </si>
   <si>
     <t>990 mbar</t>
+  </si>
+  <si>
+    <t>WB 4B C-1</t>
+  </si>
+  <si>
+    <t>21/08/2018</t>
+  </si>
+  <si>
+    <t>21/08/2018 14:29</t>
+  </si>
+  <si>
+    <t>WB 5B C-1</t>
+  </si>
+  <si>
+    <t>WB 8B C-1</t>
+  </si>
+  <si>
+    <t>WB 3E C-1</t>
+  </si>
+  <si>
+    <t>21/08/2018 15:49</t>
+  </si>
+  <si>
+    <t>WB 7E C-1</t>
+  </si>
+  <si>
+    <t>HEW26-1</t>
+  </si>
+  <si>
+    <t>HEW26-2</t>
+  </si>
+  <si>
+    <t>HEW47-1</t>
+  </si>
+  <si>
+    <t>HEW47-2</t>
+  </si>
+  <si>
+    <t>21/08/2018 15:55</t>
+  </si>
+  <si>
+    <t>HEG20-1</t>
+  </si>
+  <si>
+    <t>HEG20-2</t>
+  </si>
+  <si>
+    <t>HEG20-3</t>
+  </si>
+  <si>
+    <t>HEG33-1</t>
+  </si>
+  <si>
+    <t>HEG33-2</t>
+  </si>
+  <si>
+    <t>HEG33-3</t>
+  </si>
+  <si>
+    <t>21/08/2018 16:01</t>
+  </si>
+  <si>
+    <t>HEG6-1</t>
+  </si>
+  <si>
+    <t>HEG6-2</t>
+  </si>
+  <si>
+    <t>HEG6-3</t>
+  </si>
+  <si>
+    <t>HEW49-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,7 +558,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -608,8 +684,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -758,8 +846,27 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="137">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -821,6 +928,12 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -882,6 +995,12 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2"/>
     <cellStyle name="Standard 3" xfId="1"/>
@@ -1183,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CO26"/>
+  <dimension ref="A1:CO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1461,7 +1580,7 @@
         <v>1100</v>
       </c>
       <c r="M3" s="33">
-        <f t="shared" ref="M3:M22" si="0">((L3*G3)/J3)-L3</f>
+        <f t="shared" ref="M3:M41" si="0">((L3*G3)/J3)-L3</f>
         <v>2250.7692307692309</v>
       </c>
       <c r="N3" s="40" t="s">
@@ -1584,7 +1703,7 @@
         <v>2190.1197604790418</v>
       </c>
       <c r="I4" s="30">
-        <f t="shared" ref="I4:I26" si="2">((E4*H4)/(G4-E4))</f>
+        <f t="shared" ref="I4:I46" si="2">((E4*H4)/(G4-E4))</f>
         <v>979.7904191616766</v>
       </c>
       <c r="J4" s="8">
@@ -3948,257 +4067,2610 @@
       <c r="BT22" s="11"/>
     </row>
     <row r="23" spans="1:93">
-      <c r="I23" s="30"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="33"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="11"/>
-      <c r="AU23" s="11"/>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="11"/>
-      <c r="AX23" s="11"/>
-      <c r="AY23" s="11"/>
-      <c r="AZ23" s="11"/>
-      <c r="BA23" s="11"/>
-      <c r="BB23" s="11"/>
-      <c r="BC23" s="11"/>
-      <c r="BD23" s="11"/>
-      <c r="BE23" s="11"/>
-      <c r="BF23" s="11"/>
-      <c r="BG23" s="11"/>
-      <c r="BH23" s="11"/>
-      <c r="BI23" s="11"/>
-      <c r="BJ23" s="11"/>
-      <c r="BK23" s="11"/>
-      <c r="BL23" s="11"/>
-      <c r="BM23" s="11"/>
-      <c r="BN23" s="11"/>
-      <c r="BO23" s="11"/>
-      <c r="BP23" s="11"/>
-      <c r="BQ23" s="11"/>
-      <c r="BR23" s="11"/>
-      <c r="BS23" s="11"/>
-      <c r="BT23" s="11"/>
+      <c r="A23" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="37">
+        <v>50.125</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="63">
+        <v>310</v>
+      </c>
+      <c r="F23" s="63">
+        <v>312</v>
+      </c>
+      <c r="G23" s="8">
+        <v>996</v>
+      </c>
+      <c r="H23" s="9">
+        <f>M23</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I23" s="30">
+        <f t="shared" si="2"/>
+        <v>1021.6154823015972</v>
+      </c>
+      <c r="J23" s="8">
+        <v>326</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M23" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N23" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23" s="65"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+      <c r="BK23"/>
+      <c r="BL23"/>
+      <c r="BM23"/>
+      <c r="BN23"/>
+      <c r="BO23"/>
+      <c r="BP23"/>
+      <c r="BQ23"/>
+      <c r="BR23"/>
+      <c r="BS23"/>
+      <c r="BT23"/>
+      <c r="BU23"/>
+      <c r="BV23"/>
+      <c r="BW23"/>
+      <c r="BX23"/>
+      <c r="BY23"/>
+      <c r="BZ23"/>
+      <c r="CA23"/>
+      <c r="CB23"/>
+      <c r="CC23"/>
+      <c r="CD23"/>
+      <c r="CE23"/>
+      <c r="CF23"/>
+      <c r="CG23"/>
+      <c r="CH23"/>
+      <c r="CI23"/>
+      <c r="CJ23"/>
+      <c r="CK23"/>
+      <c r="CL23"/>
+      <c r="CM23"/>
+      <c r="CN23"/>
+      <c r="CO23"/>
     </row>
     <row r="24" spans="1:93">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="37">
+        <v>50.094999999999999</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="63">
+        <v>314</v>
+      </c>
+      <c r="F24" s="63">
+        <v>317</v>
+      </c>
+      <c r="G24" s="8">
+        <v>996</v>
+      </c>
+      <c r="H24" s="9">
+        <f>M24</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I24" s="30">
+        <f t="shared" si="2"/>
+        <v>1040.8668117949733</v>
+      </c>
+      <c r="J24" s="8">
+        <v>326</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M24" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N24" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24" s="65"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
+      <c r="BH24"/>
+      <c r="BI24"/>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+      <c r="BL24"/>
+      <c r="BM24"/>
+      <c r="BN24"/>
+      <c r="BO24"/>
+      <c r="BP24"/>
+      <c r="BQ24"/>
+      <c r="BR24"/>
+      <c r="BS24"/>
+      <c r="BT24"/>
+      <c r="BU24"/>
+      <c r="BV24"/>
+      <c r="BW24"/>
+      <c r="BX24"/>
+      <c r="BY24"/>
+      <c r="BZ24"/>
+      <c r="CA24"/>
+      <c r="CB24"/>
+      <c r="CC24"/>
+      <c r="CD24"/>
+      <c r="CE24"/>
+      <c r="CF24"/>
+      <c r="CG24"/>
+      <c r="CH24"/>
+      <c r="CI24"/>
+      <c r="CJ24"/>
+      <c r="CK24"/>
+      <c r="CL24"/>
+      <c r="CM24"/>
+      <c r="CN24"/>
+      <c r="CO24"/>
+    </row>
+    <row r="25" spans="1:93">
+      <c r="A25" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="37">
+        <v>42.726999999999997</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="63">
+        <v>312</v>
+      </c>
+      <c r="F25" s="63">
+        <v>315</v>
+      </c>
+      <c r="G25" s="8">
+        <v>996</v>
+      </c>
+      <c r="H25" s="9">
+        <f>M25</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I25" s="30">
+        <f t="shared" si="2"/>
+        <v>1031.2130018297275</v>
+      </c>
+      <c r="J25" s="8">
+        <v>326</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M25" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N25" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25" s="65"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
+      <c r="BH25"/>
+      <c r="BI25"/>
+      <c r="BJ25"/>
+      <c r="BK25"/>
+      <c r="BL25"/>
+      <c r="BM25"/>
+      <c r="BN25"/>
+      <c r="BO25"/>
+      <c r="BP25"/>
+      <c r="BQ25"/>
+      <c r="BR25"/>
+      <c r="BS25"/>
+      <c r="BT25"/>
+      <c r="BU25"/>
+      <c r="BV25"/>
+      <c r="BW25"/>
+      <c r="BX25"/>
+      <c r="BY25"/>
+      <c r="BZ25"/>
+      <c r="CA25"/>
+      <c r="CB25"/>
+      <c r="CC25"/>
+      <c r="CD25"/>
+      <c r="CE25"/>
+      <c r="CF25"/>
+      <c r="CG25"/>
+      <c r="CH25"/>
+      <c r="CI25"/>
+      <c r="CJ25"/>
+      <c r="CK25"/>
+      <c r="CL25"/>
+      <c r="CM25"/>
+      <c r="CN25"/>
+      <c r="CO25"/>
+    </row>
+    <row r="26" spans="1:93">
+      <c r="A26" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="37">
+        <v>37.661000000000001</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="2">
+        <v>309</v>
+      </c>
+      <c r="F26" s="63">
+        <v>311</v>
+      </c>
+      <c r="G26" s="8">
+        <v>996</v>
+      </c>
+      <c r="H26" s="9">
+        <f>M26</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I26" s="30">
+        <f t="shared" si="2"/>
+        <v>1016.8376778203445</v>
+      </c>
+      <c r="J26" s="8">
+        <v>326</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M26" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N26" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26" s="65"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+      <c r="BK26"/>
+      <c r="BL26"/>
+      <c r="BM26"/>
+      <c r="BN26"/>
+      <c r="BO26"/>
+      <c r="BP26"/>
+      <c r="BQ26"/>
+      <c r="BR26"/>
+      <c r="BS26"/>
+      <c r="BT26"/>
+      <c r="BU26"/>
+      <c r="BV26"/>
+      <c r="BW26"/>
+      <c r="BX26"/>
+      <c r="BY26"/>
+      <c r="BZ26"/>
+      <c r="CA26"/>
+      <c r="CB26"/>
+      <c r="CC26"/>
+      <c r="CD26"/>
+      <c r="CE26"/>
+      <c r="CF26"/>
+      <c r="CG26"/>
+      <c r="CH26"/>
+      <c r="CI26"/>
+      <c r="CJ26"/>
+      <c r="CK26"/>
+      <c r="CL26"/>
+      <c r="CM26"/>
+      <c r="CN26"/>
+      <c r="CO26"/>
+    </row>
+    <row r="27" spans="1:93">
+      <c r="A27" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="37">
+        <v>50.000999999999998</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="63">
+        <v>307</v>
+      </c>
+      <c r="F27" s="63">
+        <v>309</v>
+      </c>
+      <c r="G27" s="8">
+        <v>996</v>
+      </c>
+      <c r="H27" s="9">
+        <f>M27</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" si="2"/>
+        <v>1007.3236752829298</v>
+      </c>
+      <c r="J27" s="8">
+        <v>326</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M27" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N27" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27" s="65"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+      <c r="BK27"/>
+      <c r="BL27"/>
+      <c r="BM27"/>
+      <c r="BN27"/>
+      <c r="BO27"/>
+      <c r="BP27"/>
+      <c r="BQ27"/>
+      <c r="BR27"/>
+      <c r="BS27"/>
+      <c r="BT27"/>
+      <c r="BU27"/>
+      <c r="BV27"/>
+      <c r="BW27"/>
+      <c r="BX27"/>
+      <c r="BY27"/>
+      <c r="BZ27"/>
+      <c r="CA27"/>
+      <c r="CB27"/>
+      <c r="CC27"/>
+      <c r="CD27"/>
+      <c r="CE27"/>
+      <c r="CF27"/>
+      <c r="CG27"/>
+      <c r="CH27"/>
+      <c r="CI27"/>
+      <c r="CJ27"/>
+      <c r="CK27"/>
+      <c r="CL27"/>
+      <c r="CM27"/>
+      <c r="CN27"/>
+      <c r="CO27"/>
+    </row>
+    <row r="28" spans="1:93">
+      <c r="A28" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="37">
+        <v>40.095999999999997</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="63">
+        <v>313</v>
+      </c>
+      <c r="F28" s="63">
+        <v>316</v>
+      </c>
+      <c r="G28" s="8">
+        <v>996</v>
+      </c>
+      <c r="H28" s="9">
+        <f>M28</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I28" s="30">
+        <f t="shared" si="2"/>
+        <v>1036.0328396015414</v>
+      </c>
+      <c r="J28" s="8">
+        <v>326</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M28" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N28" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28" s="65"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+      <c r="BL28"/>
+      <c r="BM28"/>
+      <c r="BN28"/>
+      <c r="BO28"/>
+      <c r="BP28"/>
+      <c r="BQ28"/>
+      <c r="BR28"/>
+      <c r="BS28"/>
+      <c r="BT28"/>
+      <c r="BU28"/>
+      <c r="BV28"/>
+      <c r="BW28"/>
+      <c r="BX28"/>
+      <c r="BY28"/>
+      <c r="BZ28"/>
+      <c r="CA28"/>
+      <c r="CB28"/>
+      <c r="CC28"/>
+      <c r="CD28"/>
+      <c r="CE28"/>
+      <c r="CF28"/>
+      <c r="CG28"/>
+      <c r="CH28"/>
+      <c r="CI28"/>
+      <c r="CJ28"/>
+      <c r="CK28"/>
+      <c r="CL28"/>
+      <c r="CM28"/>
+      <c r="CN28"/>
+      <c r="CO28"/>
+    </row>
+    <row r="29" spans="1:93">
+      <c r="A29" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="37">
+        <v>40.052</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="63">
+        <v>313</v>
+      </c>
+      <c r="F29" s="63">
+        <v>316</v>
+      </c>
+      <c r="G29" s="8">
+        <v>996</v>
+      </c>
+      <c r="H29" s="9">
+        <f>M29</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I29" s="30">
+        <f t="shared" si="2"/>
+        <v>1036.0328396015414</v>
+      </c>
+      <c r="J29" s="8">
+        <v>326</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M29" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N29" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29" s="65"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+      <c r="BK29"/>
+      <c r="BL29"/>
+      <c r="BM29"/>
+      <c r="BN29"/>
+      <c r="BO29"/>
+      <c r="BP29"/>
+      <c r="BQ29"/>
+      <c r="BR29"/>
+      <c r="BS29"/>
+      <c r="BT29"/>
+      <c r="BU29"/>
+      <c r="BV29"/>
+      <c r="BW29"/>
+      <c r="BX29"/>
+      <c r="BY29"/>
+      <c r="BZ29"/>
+      <c r="CA29"/>
+      <c r="CB29"/>
+      <c r="CC29"/>
+      <c r="CD29"/>
+      <c r="CE29"/>
+      <c r="CF29"/>
+      <c r="CG29"/>
+      <c r="CH29"/>
+      <c r="CI29"/>
+      <c r="CJ29"/>
+      <c r="CK29"/>
+      <c r="CL29"/>
+      <c r="CM29"/>
+      <c r="CN29"/>
+      <c r="CO29"/>
+    </row>
+    <row r="30" spans="1:93">
+      <c r="A30" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="37">
+        <v>40.043999999999997</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="63">
+        <v>313</v>
+      </c>
+      <c r="F30" s="63">
+        <v>315</v>
+      </c>
+      <c r="G30" s="8">
+        <v>996</v>
+      </c>
+      <c r="H30" s="9">
+        <f>M30</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I30" s="30">
+        <f t="shared" si="2"/>
+        <v>1036.0328396015414</v>
+      </c>
+      <c r="J30" s="8">
+        <v>326</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M30" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N30" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30" s="65"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+      <c r="BG30"/>
+      <c r="BH30"/>
+      <c r="BI30"/>
+      <c r="BJ30"/>
+      <c r="BK30"/>
+      <c r="BL30"/>
+      <c r="BM30"/>
+      <c r="BN30"/>
+      <c r="BO30"/>
+      <c r="BP30"/>
+      <c r="BQ30"/>
+      <c r="BR30"/>
+      <c r="BS30"/>
+      <c r="BT30"/>
+      <c r="BU30"/>
+      <c r="BV30"/>
+      <c r="BW30"/>
+      <c r="BX30"/>
+      <c r="BY30"/>
+      <c r="BZ30"/>
+      <c r="CA30"/>
+      <c r="CB30"/>
+      <c r="CC30"/>
+      <c r="CD30"/>
+      <c r="CE30"/>
+      <c r="CF30"/>
+      <c r="CG30"/>
+      <c r="CH30"/>
+      <c r="CI30"/>
+      <c r="CJ30"/>
+      <c r="CK30"/>
+      <c r="CL30"/>
+      <c r="CM30"/>
+      <c r="CN30"/>
+      <c r="CO30"/>
+    </row>
+    <row r="31" spans="1:93">
+      <c r="A31" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="37">
+        <v>40.085000000000001</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="63">
+        <v>313</v>
+      </c>
+      <c r="F31" s="63">
+        <v>315</v>
+      </c>
+      <c r="G31" s="8">
+        <v>996</v>
+      </c>
+      <c r="H31" s="9">
+        <f>M31</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I31" s="30">
+        <f t="shared" si="2"/>
+        <v>1036.0328396015414</v>
+      </c>
+      <c r="J31" s="8">
+        <v>326</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M31" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N31" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31" s="65"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+      <c r="BK31"/>
+      <c r="BL31"/>
+      <c r="BM31"/>
+      <c r="BN31"/>
+      <c r="BO31"/>
+      <c r="BP31"/>
+      <c r="BQ31"/>
+      <c r="BR31"/>
+      <c r="BS31"/>
+      <c r="BT31"/>
+      <c r="BU31"/>
+      <c r="BV31"/>
+      <c r="BW31"/>
+      <c r="BX31"/>
+      <c r="BY31"/>
+      <c r="BZ31"/>
+      <c r="CA31"/>
+      <c r="CB31"/>
+      <c r="CC31"/>
+      <c r="CD31"/>
+      <c r="CE31"/>
+      <c r="CF31"/>
+      <c r="CG31"/>
+      <c r="CH31"/>
+      <c r="CI31"/>
+      <c r="CJ31"/>
+      <c r="CK31"/>
+      <c r="CL31"/>
+      <c r="CM31"/>
+      <c r="CN31"/>
+      <c r="CO31"/>
+    </row>
+    <row r="32" spans="1:93">
+      <c r="A32" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="37">
+        <v>50.087999999999994</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="63">
+        <v>308</v>
+      </c>
+      <c r="F32" s="63">
+        <v>311</v>
+      </c>
+      <c r="G32" s="8">
+        <v>996</v>
+      </c>
+      <c r="H32" s="9">
+        <f>M32</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I32" s="30">
+        <f t="shared" si="2"/>
+        <v>1012.0737623056069</v>
+      </c>
+      <c r="J32" s="8">
+        <v>326</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M32" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N32" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32" s="65"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+      <c r="AW32"/>
+      <c r="AX32"/>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="BA32"/>
+      <c r="BB32"/>
+      <c r="BC32"/>
+      <c r="BD32"/>
+      <c r="BE32"/>
+      <c r="BF32"/>
+      <c r="BG32"/>
+      <c r="BH32"/>
+      <c r="BI32"/>
+      <c r="BJ32"/>
+      <c r="BK32"/>
+      <c r="BL32"/>
+      <c r="BM32"/>
+      <c r="BN32"/>
+      <c r="BO32"/>
+      <c r="BP32"/>
+      <c r="BQ32"/>
+      <c r="BR32"/>
+      <c r="BS32"/>
+      <c r="BT32"/>
+      <c r="BU32"/>
+      <c r="BV32"/>
+      <c r="BW32"/>
+      <c r="BX32"/>
+      <c r="BY32"/>
+      <c r="BZ32"/>
+      <c r="CA32"/>
+      <c r="CB32"/>
+      <c r="CC32"/>
+      <c r="CD32"/>
+      <c r="CE32"/>
+      <c r="CF32"/>
+      <c r="CG32"/>
+      <c r="CH32"/>
+      <c r="CI32"/>
+      <c r="CJ32"/>
+      <c r="CK32"/>
+      <c r="CL32"/>
+      <c r="CM32"/>
+      <c r="CN32"/>
+      <c r="CO32"/>
+    </row>
+    <row r="33" spans="1:93">
+      <c r="A33" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="37">
+        <v>50.079000000000001</v>
+      </c>
+      <c r="D33" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="63">
+        <v>311</v>
+      </c>
+      <c r="F33" s="63">
+        <v>313</v>
+      </c>
+      <c r="G33" s="8">
+        <v>996</v>
+      </c>
+      <c r="H33" s="9">
+        <f>M33</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I33" s="30">
+        <f t="shared" si="2"/>
+        <v>1026.4072365769557</v>
+      </c>
+      <c r="J33" s="8">
+        <v>326</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M33" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N33" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33" s="65"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+      <c r="AR33"/>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+      <c r="AW33"/>
+      <c r="AX33"/>
+      <c r="AY33"/>
+      <c r="AZ33"/>
+      <c r="BA33"/>
+      <c r="BB33"/>
+      <c r="BC33"/>
+      <c r="BD33"/>
+      <c r="BE33"/>
+      <c r="BF33"/>
+      <c r="BG33"/>
+      <c r="BH33"/>
+      <c r="BI33"/>
+      <c r="BJ33"/>
+      <c r="BK33"/>
+      <c r="BL33"/>
+      <c r="BM33"/>
+      <c r="BN33"/>
+      <c r="BO33"/>
+      <c r="BP33"/>
+      <c r="BQ33"/>
+      <c r="BR33"/>
+      <c r="BS33"/>
+      <c r="BT33"/>
+      <c r="BU33"/>
+      <c r="BV33"/>
+      <c r="BW33"/>
+      <c r="BX33"/>
+      <c r="BY33"/>
+      <c r="BZ33"/>
+      <c r="CA33"/>
+      <c r="CB33"/>
+      <c r="CC33"/>
+      <c r="CD33"/>
+      <c r="CE33"/>
+      <c r="CF33"/>
+      <c r="CG33"/>
+      <c r="CH33"/>
+      <c r="CI33"/>
+      <c r="CJ33"/>
+      <c r="CK33"/>
+      <c r="CL33"/>
+      <c r="CM33"/>
+      <c r="CN33"/>
+      <c r="CO33"/>
+    </row>
+    <row r="34" spans="1:93">
+      <c r="A34" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="37">
+        <v>50.037999999999997</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="63">
+        <v>310</v>
+      </c>
+      <c r="F34" s="63">
+        <v>313</v>
+      </c>
+      <c r="G34" s="8">
+        <v>996</v>
+      </c>
+      <c r="H34" s="9">
+        <f>M34</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I34" s="30">
+        <f t="shared" si="2"/>
+        <v>1021.6154823015972</v>
+      </c>
+      <c r="J34" s="8">
+        <v>326</v>
+      </c>
+      <c r="L34" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M34" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N34" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34" s="65"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+      <c r="BB34"/>
+      <c r="BC34"/>
+      <c r="BD34"/>
+      <c r="BE34"/>
+      <c r="BF34"/>
+      <c r="BG34"/>
+      <c r="BH34"/>
+      <c r="BI34"/>
+      <c r="BJ34"/>
+      <c r="BK34"/>
+      <c r="BL34"/>
+      <c r="BM34"/>
+      <c r="BN34"/>
+      <c r="BO34"/>
+      <c r="BP34"/>
+      <c r="BQ34"/>
+      <c r="BR34"/>
+      <c r="BS34"/>
+      <c r="BT34"/>
+      <c r="BU34"/>
+      <c r="BV34"/>
+      <c r="BW34"/>
+      <c r="BX34"/>
+      <c r="BY34"/>
+      <c r="BZ34"/>
+      <c r="CA34"/>
+      <c r="CB34"/>
+      <c r="CC34"/>
+      <c r="CD34"/>
+      <c r="CE34"/>
+      <c r="CF34"/>
+      <c r="CG34"/>
+      <c r="CH34"/>
+      <c r="CI34"/>
+      <c r="CJ34"/>
+      <c r="CK34"/>
+      <c r="CL34"/>
+      <c r="CM34"/>
+      <c r="CN34"/>
+      <c r="CO34"/>
+    </row>
+    <row r="35" spans="1:93">
+      <c r="A35" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="37">
+        <v>50.058</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="63">
+        <v>309</v>
+      </c>
+      <c r="F35" s="63">
+        <v>311</v>
+      </c>
+      <c r="G35" s="8">
+        <v>996</v>
+      </c>
+      <c r="H35" s="9">
+        <f>M35</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I35" s="30">
+        <f t="shared" si="2"/>
+        <v>1016.8376778203445</v>
+      </c>
+      <c r="J35" s="8">
+        <v>326</v>
+      </c>
+      <c r="L35" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M35" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N35" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35" s="65"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+      <c r="BB35"/>
+      <c r="BC35"/>
+      <c r="BD35"/>
+      <c r="BE35"/>
+      <c r="BF35"/>
+      <c r="BG35"/>
+      <c r="BH35"/>
+      <c r="BI35"/>
+      <c r="BJ35"/>
+      <c r="BK35"/>
+      <c r="BL35"/>
+      <c r="BM35"/>
+      <c r="BN35"/>
+      <c r="BO35"/>
+      <c r="BP35"/>
+      <c r="BQ35"/>
+      <c r="BR35"/>
+      <c r="BS35"/>
+      <c r="BT35"/>
+      <c r="BU35"/>
+      <c r="BV35"/>
+      <c r="BW35"/>
+      <c r="BX35"/>
+      <c r="BY35"/>
+      <c r="BZ35"/>
+      <c r="CA35"/>
+      <c r="CB35"/>
+      <c r="CC35"/>
+      <c r="CD35"/>
+      <c r="CE35"/>
+      <c r="CF35"/>
+      <c r="CG35"/>
+      <c r="CH35"/>
+      <c r="CI35"/>
+      <c r="CJ35"/>
+      <c r="CK35"/>
+      <c r="CL35"/>
+      <c r="CM35"/>
+      <c r="CN35"/>
+      <c r="CO35"/>
+    </row>
+    <row r="36" spans="1:93">
+      <c r="A36" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="37">
+        <v>50.087000000000003</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="63">
+        <v>305</v>
+      </c>
+      <c r="F36" s="63">
+        <v>308</v>
+      </c>
+      <c r="G36" s="8">
+        <v>996</v>
+      </c>
+      <c r="H36" s="9">
+        <f>M36</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I36" s="30">
+        <f t="shared" si="2"/>
+        <v>997.86474656628161</v>
+      </c>
+      <c r="J36" s="8">
+        <v>326</v>
+      </c>
+      <c r="L36" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M36" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N36" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36" s="65"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+      <c r="AR36"/>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+      <c r="AW36"/>
+      <c r="AX36"/>
+      <c r="AY36"/>
+      <c r="AZ36"/>
+      <c r="BA36"/>
+      <c r="BB36"/>
+      <c r="BC36"/>
+      <c r="BD36"/>
+      <c r="BE36"/>
+      <c r="BF36"/>
+      <c r="BG36"/>
+      <c r="BH36"/>
+      <c r="BI36"/>
+      <c r="BJ36"/>
+      <c r="BK36"/>
+      <c r="BL36"/>
+      <c r="BM36"/>
+      <c r="BN36"/>
+      <c r="BO36"/>
+      <c r="BP36"/>
+      <c r="BQ36"/>
+      <c r="BR36"/>
+      <c r="BS36"/>
+      <c r="BT36"/>
+      <c r="BU36"/>
+      <c r="BV36"/>
+      <c r="BW36"/>
+      <c r="BX36"/>
+      <c r="BY36"/>
+      <c r="BZ36"/>
+      <c r="CA36"/>
+      <c r="CB36"/>
+      <c r="CC36"/>
+      <c r="CD36"/>
+      <c r="CE36"/>
+      <c r="CF36"/>
+      <c r="CG36"/>
+      <c r="CH36"/>
+      <c r="CI36"/>
+      <c r="CJ36"/>
+      <c r="CK36"/>
+      <c r="CL36"/>
+      <c r="CM36"/>
+      <c r="CN36"/>
+      <c r="CO36"/>
+    </row>
+    <row r="37" spans="1:93">
+      <c r="A37" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="37">
+        <v>50</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="63">
+        <v>311</v>
+      </c>
+      <c r="F37" s="63">
+        <v>313</v>
+      </c>
+      <c r="G37" s="8">
+        <v>996</v>
+      </c>
+      <c r="H37" s="9">
+        <f>M37</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I37" s="30">
+        <f t="shared" si="2"/>
+        <v>1026.4072365769557</v>
+      </c>
+      <c r="J37" s="8">
+        <v>326</v>
+      </c>
+      <c r="L37" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M37" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N37" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37" s="65"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+      <c r="AR37"/>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+      <c r="AW37"/>
+      <c r="AX37"/>
+      <c r="AY37"/>
+      <c r="AZ37"/>
+      <c r="BA37"/>
+      <c r="BB37"/>
+      <c r="BC37"/>
+      <c r="BD37"/>
+      <c r="BE37"/>
+      <c r="BF37"/>
+      <c r="BG37"/>
+      <c r="BH37"/>
+      <c r="BI37"/>
+      <c r="BJ37"/>
+      <c r="BK37"/>
+      <c r="BL37"/>
+      <c r="BM37"/>
+      <c r="BN37"/>
+      <c r="BO37"/>
+      <c r="BP37"/>
+      <c r="BQ37"/>
+      <c r="BR37"/>
+      <c r="BS37"/>
+      <c r="BT37"/>
+      <c r="BU37"/>
+      <c r="BV37"/>
+      <c r="BW37"/>
+      <c r="BX37"/>
+      <c r="BY37"/>
+      <c r="BZ37"/>
+      <c r="CA37"/>
+      <c r="CB37"/>
+      <c r="CC37"/>
+      <c r="CD37"/>
+      <c r="CE37"/>
+      <c r="CF37"/>
+      <c r="CG37"/>
+      <c r="CH37"/>
+      <c r="CI37"/>
+      <c r="CJ37"/>
+      <c r="CK37"/>
+      <c r="CL37"/>
+      <c r="CM37"/>
+      <c r="CN37"/>
+      <c r="CO37"/>
+    </row>
+    <row r="38" spans="1:93">
+      <c r="A38" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="37">
+        <v>50.012</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="63">
+        <v>310</v>
+      </c>
+      <c r="F38" s="63">
+        <v>313</v>
+      </c>
+      <c r="G38" s="8">
+        <v>996</v>
+      </c>
+      <c r="H38" s="9">
+        <f>M38</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I38" s="30">
+        <f t="shared" si="2"/>
+        <v>1021.6154823015972</v>
+      </c>
+      <c r="J38" s="8">
+        <v>326</v>
+      </c>
+      <c r="L38" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M38" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N38" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38" s="65"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+      <c r="AR38"/>
+      <c r="AS38"/>
+      <c r="AT38"/>
+      <c r="AU38"/>
+      <c r="AV38"/>
+      <c r="AW38"/>
+      <c r="AX38"/>
+      <c r="AY38"/>
+      <c r="AZ38"/>
+      <c r="BA38"/>
+      <c r="BB38"/>
+      <c r="BC38"/>
+      <c r="BD38"/>
+      <c r="BE38"/>
+      <c r="BF38"/>
+      <c r="BG38"/>
+      <c r="BH38"/>
+      <c r="BI38"/>
+      <c r="BJ38"/>
+      <c r="BK38"/>
+      <c r="BL38"/>
+      <c r="BM38"/>
+      <c r="BN38"/>
+      <c r="BO38"/>
+      <c r="BP38"/>
+      <c r="BQ38"/>
+      <c r="BR38"/>
+      <c r="BS38"/>
+      <c r="BT38"/>
+      <c r="BU38"/>
+      <c r="BV38"/>
+      <c r="BW38"/>
+      <c r="BX38"/>
+      <c r="BY38"/>
+      <c r="BZ38"/>
+      <c r="CA38"/>
+      <c r="CB38"/>
+      <c r="CC38"/>
+      <c r="CD38"/>
+      <c r="CE38"/>
+      <c r="CF38"/>
+      <c r="CG38"/>
+      <c r="CH38"/>
+      <c r="CI38"/>
+      <c r="CJ38"/>
+      <c r="CK38"/>
+      <c r="CL38"/>
+      <c r="CM38"/>
+      <c r="CN38"/>
+      <c r="CO38"/>
+    </row>
+    <row r="39" spans="1:93">
+      <c r="A39" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="37">
+        <v>50.167000000000002</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="63">
+        <v>306</v>
+      </c>
+      <c r="F39" s="63">
+        <v>308</v>
+      </c>
+      <c r="G39" s="8">
+        <v>996</v>
+      </c>
+      <c r="H39" s="9">
+        <f>M39</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I39" s="30">
+        <f t="shared" si="2"/>
+        <v>1002.5873566284342</v>
+      </c>
+      <c r="J39" s="8">
+        <v>326</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M39" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N39" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39" s="65"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AR39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+      <c r="AW39"/>
+      <c r="AX39"/>
+      <c r="AY39"/>
+      <c r="AZ39"/>
+      <c r="BA39"/>
+      <c r="BB39"/>
+      <c r="BC39"/>
+      <c r="BD39"/>
+      <c r="BE39"/>
+      <c r="BF39"/>
+      <c r="BG39"/>
+      <c r="BH39"/>
+      <c r="BI39"/>
+      <c r="BJ39"/>
+      <c r="BK39"/>
+      <c r="BL39"/>
+      <c r="BM39"/>
+      <c r="BN39"/>
+      <c r="BO39"/>
+      <c r="BP39"/>
+      <c r="BQ39"/>
+      <c r="BR39"/>
+      <c r="BS39"/>
+      <c r="BT39"/>
+      <c r="BU39"/>
+      <c r="BV39"/>
+      <c r="BW39"/>
+      <c r="BX39"/>
+      <c r="BY39"/>
+      <c r="BZ39"/>
+      <c r="CA39"/>
+      <c r="CB39"/>
+      <c r="CC39"/>
+      <c r="CD39"/>
+      <c r="CE39"/>
+      <c r="CF39"/>
+      <c r="CG39"/>
+      <c r="CH39"/>
+      <c r="CI39"/>
+      <c r="CJ39"/>
+      <c r="CK39"/>
+      <c r="CL39"/>
+      <c r="CM39"/>
+      <c r="CN39"/>
+      <c r="CO39"/>
+    </row>
+    <row r="40" spans="1:93">
+      <c r="A40" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="37">
+        <v>50.005000000000003</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="63">
+        <v>304</v>
+      </c>
+      <c r="F40" s="63">
+        <v>307</v>
+      </c>
+      <c r="G40" s="8">
+        <v>996</v>
+      </c>
+      <c r="H40" s="9">
+        <f>M40</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I40" s="30">
+        <f t="shared" si="2"/>
+        <v>993.15578566615829</v>
+      </c>
+      <c r="J40" s="8">
+        <v>326</v>
+      </c>
+      <c r="L40" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M40" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N40" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40" s="65"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40"/>
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40"/>
+      <c r="AQ40"/>
+      <c r="AR40"/>
+      <c r="AS40"/>
+      <c r="AT40"/>
+      <c r="AU40"/>
+      <c r="AV40"/>
+      <c r="AW40"/>
+      <c r="AX40"/>
+      <c r="AY40"/>
+      <c r="AZ40"/>
+      <c r="BA40"/>
+      <c r="BB40"/>
+      <c r="BC40"/>
+      <c r="BD40"/>
+      <c r="BE40"/>
+      <c r="BF40"/>
+      <c r="BG40"/>
+      <c r="BH40"/>
+      <c r="BI40"/>
+      <c r="BJ40"/>
+      <c r="BK40"/>
+      <c r="BL40"/>
+      <c r="BM40"/>
+      <c r="BN40"/>
+      <c r="BO40"/>
+      <c r="BP40"/>
+      <c r="BQ40"/>
+      <c r="BR40"/>
+      <c r="BS40"/>
+      <c r="BT40"/>
+      <c r="BU40"/>
+      <c r="BV40"/>
+      <c r="BW40"/>
+      <c r="BX40"/>
+      <c r="BY40"/>
+      <c r="BZ40"/>
+      <c r="CA40"/>
+      <c r="CB40"/>
+      <c r="CC40"/>
+      <c r="CD40"/>
+      <c r="CE40"/>
+      <c r="CF40"/>
+      <c r="CG40"/>
+      <c r="CH40"/>
+      <c r="CI40"/>
+      <c r="CJ40"/>
+      <c r="CK40"/>
+      <c r="CL40"/>
+      <c r="CM40"/>
+      <c r="CN40"/>
+      <c r="CO40"/>
+    </row>
+    <row r="41" spans="1:93" ht="15" thickBot="1">
+      <c r="A41" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="67"/>
+      <c r="C41" s="37">
+        <v>50.128999999999998</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="67">
+        <v>311</v>
+      </c>
+      <c r="F41" s="67">
+        <v>314</v>
+      </c>
+      <c r="G41" s="69">
+        <v>996</v>
+      </c>
+      <c r="H41" s="70">
+        <f>M41</f>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="I41" s="30">
+        <f t="shared" si="2"/>
+        <v>1026.4072365769557</v>
+      </c>
+      <c r="J41" s="69">
+        <v>326</v>
+      </c>
+      <c r="L41" s="69">
+        <v>1100</v>
+      </c>
+      <c r="M41" s="33">
+        <f t="shared" si="0"/>
+        <v>2260.7361963190183</v>
+      </c>
+      <c r="N41" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41" s="65"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41"/>
+      <c r="AR41"/>
+      <c r="AS41"/>
+      <c r="AT41"/>
+      <c r="AU41"/>
+      <c r="AV41"/>
+      <c r="AW41"/>
+      <c r="AX41"/>
+      <c r="AY41"/>
+      <c r="AZ41"/>
+      <c r="BA41"/>
+      <c r="BB41"/>
+      <c r="BC41"/>
+      <c r="BD41"/>
+      <c r="BE41"/>
+      <c r="BF41"/>
+      <c r="BG41"/>
+      <c r="BH41"/>
+      <c r="BI41"/>
+      <c r="BJ41"/>
+      <c r="BK41"/>
+      <c r="BL41"/>
+      <c r="BM41"/>
+      <c r="BN41"/>
+      <c r="BO41"/>
+      <c r="BP41"/>
+      <c r="BQ41"/>
+      <c r="BR41"/>
+      <c r="BS41"/>
+      <c r="BT41"/>
+      <c r="BU41"/>
+      <c r="BV41"/>
+      <c r="BW41"/>
+      <c r="BX41"/>
+      <c r="BY41"/>
+      <c r="BZ41"/>
+      <c r="CA41"/>
+      <c r="CB41"/>
+      <c r="CC41"/>
+      <c r="CD41"/>
+      <c r="CE41"/>
+      <c r="CF41"/>
+      <c r="CG41"/>
+      <c r="CH41"/>
+      <c r="CI41"/>
+      <c r="CJ41"/>
+      <c r="CK41"/>
+      <c r="CL41"/>
+      <c r="CM41"/>
+      <c r="CN41"/>
+      <c r="CO41"/>
+    </row>
+    <row r="42" spans="1:93">
+      <c r="A42" s="36"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="58"/>
+      <c r="U42" s="58"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+      <c r="AN42" s="11"/>
+      <c r="AO42" s="11"/>
+      <c r="AP42" s="11"/>
+      <c r="AQ42" s="11"/>
+      <c r="AR42" s="11"/>
+      <c r="AS42" s="11"/>
+      <c r="AT42" s="11"/>
+      <c r="AU42" s="11"/>
+      <c r="AV42" s="11"/>
+      <c r="AW42" s="11"/>
+      <c r="AX42" s="11"/>
+      <c r="AY42" s="11"/>
+      <c r="AZ42" s="11"/>
+      <c r="BA42" s="11"/>
+      <c r="BB42" s="11"/>
+      <c r="BC42" s="11"/>
+      <c r="BD42" s="11"/>
+      <c r="BE42" s="11"/>
+      <c r="BF42" s="11"/>
+      <c r="BG42" s="11"/>
+      <c r="BH42" s="11"/>
+      <c r="BI42" s="11"/>
+      <c r="BJ42" s="11"/>
+      <c r="BK42" s="11"/>
+      <c r="BL42" s="11"/>
+      <c r="BM42" s="11"/>
+      <c r="BN42" s="11"/>
+      <c r="BO42" s="11"/>
+      <c r="BP42" s="11"/>
+      <c r="BQ42" s="11"/>
+      <c r="BR42" s="11"/>
+      <c r="BS42" s="11"/>
+      <c r="BT42" s="11"/>
+    </row>
+    <row r="43" spans="1:93">
+      <c r="I43" s="30"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="33"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="11"/>
+      <c r="AT43" s="11"/>
+      <c r="AU43" s="11"/>
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="11"/>
+      <c r="AY43" s="11"/>
+      <c r="AZ43" s="11"/>
+      <c r="BA43" s="11"/>
+      <c r="BB43" s="11"/>
+      <c r="BC43" s="11"/>
+      <c r="BD43" s="11"/>
+      <c r="BE43" s="11"/>
+      <c r="BF43" s="11"/>
+      <c r="BG43" s="11"/>
+      <c r="BH43" s="11"/>
+      <c r="BI43" s="11"/>
+      <c r="BJ43" s="11"/>
+      <c r="BK43" s="11"/>
+      <c r="BL43" s="11"/>
+      <c r="BM43" s="11"/>
+      <c r="BN43" s="11"/>
+      <c r="BO43" s="11"/>
+      <c r="BP43" s="11"/>
+      <c r="BQ43" s="11"/>
+      <c r="BR43" s="11"/>
+      <c r="BS43" s="11"/>
+      <c r="BT43" s="11"/>
+    </row>
+    <row r="44" spans="1:93">
+      <c r="A44" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="30" t="e">
+      <c r="D44" s="10"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="30" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8">
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8">
         <v>1100</v>
       </c>
-      <c r="M24" s="33" t="e">
-        <f t="shared" ref="M24:M26" si="4">((L24*G24)/J24)-L24</f>
+      <c r="M44" s="33" t="e">
+        <f t="shared" ref="M44:M46" si="4">((L44*G44)/J44)-L44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="11"/>
-      <c r="AT24" s="11"/>
-      <c r="AU24" s="11"/>
-      <c r="AV24" s="11"/>
-      <c r="AW24" s="11"/>
-      <c r="AX24" s="11"/>
-      <c r="AY24" s="11"/>
-      <c r="AZ24" s="11"/>
-      <c r="BA24" s="11"/>
-      <c r="BB24" s="11"/>
-      <c r="BC24" s="11"/>
-      <c r="BD24" s="11"/>
-      <c r="BE24" s="11"/>
-      <c r="BF24" s="11"/>
-      <c r="BG24" s="11"/>
-      <c r="BH24" s="11"/>
-      <c r="BI24" s="11"/>
-      <c r="BJ24" s="11"/>
-      <c r="BK24" s="11"/>
-      <c r="BL24" s="11"/>
-      <c r="BM24" s="11"/>
-      <c r="BN24" s="11"/>
-      <c r="BO24" s="11"/>
-      <c r="BP24" s="11"/>
-      <c r="BQ24" s="11"/>
-      <c r="BR24" s="11"/>
-      <c r="BS24" s="11"/>
-      <c r="BT24" s="11"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="58"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="11"/>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="11"/>
+      <c r="AT44" s="11"/>
+      <c r="AU44" s="11"/>
+      <c r="AV44" s="11"/>
+      <c r="AW44" s="11"/>
+      <c r="AX44" s="11"/>
+      <c r="AY44" s="11"/>
+      <c r="AZ44" s="11"/>
+      <c r="BA44" s="11"/>
+      <c r="BB44" s="11"/>
+      <c r="BC44" s="11"/>
+      <c r="BD44" s="11"/>
+      <c r="BE44" s="11"/>
+      <c r="BF44" s="11"/>
+      <c r="BG44" s="11"/>
+      <c r="BH44" s="11"/>
+      <c r="BI44" s="11"/>
+      <c r="BJ44" s="11"/>
+      <c r="BK44" s="11"/>
+      <c r="BL44" s="11"/>
+      <c r="BM44" s="11"/>
+      <c r="BN44" s="11"/>
+      <c r="BO44" s="11"/>
+      <c r="BP44" s="11"/>
+      <c r="BQ44" s="11"/>
+      <c r="BR44" s="11"/>
+      <c r="BS44" s="11"/>
+      <c r="BT44" s="11"/>
     </row>
-    <row r="25" spans="1:93">
-      <c r="A25" s="34" t="s">
+    <row r="45" spans="1:93">
+      <c r="A45" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="30" t="e">
+      <c r="D45" s="10"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="30" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8">
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8">
         <v>1100</v>
       </c>
-      <c r="M25" s="33" t="e">
+      <c r="M45" s="33" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="11"/>
-      <c r="AS25" s="11"/>
-      <c r="AT25" s="11"/>
-      <c r="AU25" s="11"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="11"/>
-      <c r="AX25" s="11"/>
-      <c r="AY25" s="11"/>
-      <c r="AZ25" s="11"/>
-      <c r="BA25" s="11"/>
-      <c r="BB25" s="11"/>
-      <c r="BC25" s="11"/>
-      <c r="BD25" s="11"/>
-      <c r="BE25" s="11"/>
-      <c r="BF25" s="11"/>
-      <c r="BG25" s="11"/>
-      <c r="BH25" s="11"/>
-      <c r="BI25" s="11"/>
-      <c r="BJ25" s="11"/>
-      <c r="BK25" s="11"/>
-      <c r="BL25" s="11"/>
-      <c r="BM25" s="11"/>
-      <c r="BN25" s="11"/>
-      <c r="BO25" s="11"/>
-      <c r="BP25" s="11"/>
-      <c r="BQ25" s="11"/>
-      <c r="BR25" s="11"/>
-      <c r="BS25" s="11"/>
-      <c r="BT25" s="11"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="11"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="11"/>
+      <c r="AP45" s="11"/>
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="11"/>
+      <c r="AS45" s="11"/>
+      <c r="AT45" s="11"/>
+      <c r="AU45" s="11"/>
+      <c r="AV45" s="11"/>
+      <c r="AW45" s="11"/>
+      <c r="AX45" s="11"/>
+      <c r="AY45" s="11"/>
+      <c r="AZ45" s="11"/>
+      <c r="BA45" s="11"/>
+      <c r="BB45" s="11"/>
+      <c r="BC45" s="11"/>
+      <c r="BD45" s="11"/>
+      <c r="BE45" s="11"/>
+      <c r="BF45" s="11"/>
+      <c r="BG45" s="11"/>
+      <c r="BH45" s="11"/>
+      <c r="BI45" s="11"/>
+      <c r="BJ45" s="11"/>
+      <c r="BK45" s="11"/>
+      <c r="BL45" s="11"/>
+      <c r="BM45" s="11"/>
+      <c r="BN45" s="11"/>
+      <c r="BO45" s="11"/>
+      <c r="BP45" s="11"/>
+      <c r="BQ45" s="11"/>
+      <c r="BR45" s="11"/>
+      <c r="BS45" s="11"/>
+      <c r="BT45" s="11"/>
     </row>
-    <row r="26" spans="1:93">
-      <c r="A26" s="34" t="s">
+    <row r="46" spans="1:93">
+      <c r="A46" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="30" t="e">
+      <c r="D46" s="10"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="30" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8">
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8">
         <v>1100</v>
       </c>
-      <c r="M26" s="33" t="e">
+      <c r="M46" s="33" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="39"/>
+      <c r="N46" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
